--- a/server/public/productos-prueba-espejo_v2.xlsx
+++ b/server/public/productos-prueba-espejo_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311E93A1-CDF4-4D8F-9ECB-7B4A0E9CF304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB0E9F-0800-4D3C-A7A1-A2A069C78116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{5FCE9BD9-161B-4910-8247-CD58469831A3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Category</t>
   </si>
@@ -157,40 +157,46 @@
     <t>S,M ; S,M ; S,M</t>
   </si>
   <si>
-    <t>C:\img\2210000-Celeste.png ; C:\img\22210000-Durazno.png ; C:\img\22210000-Rosa.png</t>
-  </si>
-  <si>
-    <t>C:\img\20310135-Oliva.png ; C:\img\1603952-20310135-Violeta.png</t>
-  </si>
-  <si>
-    <t>C:\img\26310108-Gris.png ; C:\img\26310108-Rosa.png</t>
-  </si>
-  <si>
-    <t>C:\img\1603952-Azul-Marino.png</t>
-  </si>
-  <si>
-    <t>C:\img\3548929-Gris.png</t>
-  </si>
-  <si>
-    <t>C:\img\35010109-Oliva.png</t>
-  </si>
-  <si>
-    <t>C:\img\47010299-Azul.png</t>
-  </si>
-  <si>
-    <t>C:\img\4709608-Marino.png</t>
-  </si>
-  <si>
-    <t>C:\img\5009834-Beige.png</t>
-  </si>
-  <si>
     <t>1;1</t>
   </si>
   <si>
     <t>1;1;1</t>
   </si>
   <si>
-    <t>20310135;12121212</t>
+    <t>L,M;L,M</t>
+  </si>
+  <si>
+    <t>1,1;1,1</t>
+  </si>
+  <si>
+    <t>20310135,1212121;20310132,1212120</t>
+  </si>
+  <si>
+    <t>C:\Users\juan\Documents\3548929-Gris.png</t>
+  </si>
+  <si>
+    <t>C:\Users\juan\Documents\20310135-Oliva.png ; C:\Users\juan\Documents\603952-20310135-Violeta.png</t>
+  </si>
+  <si>
+    <t>C:\Users\juan\Documents\26310108-Gris.png ; C:\Users\juan\Documents\26310108-Rosa.png</t>
+  </si>
+  <si>
+    <t>C:\Users\juan\Documents\2210000-Celeste.png ;C:\Users\juan\Documents\22210000-Durazno.png ; C:\Users\juan\Documents\22210000-Rosa.png</t>
+  </si>
+  <si>
+    <t>C:\Users\juan\Documents\1603952-Azul-Marino.png</t>
+  </si>
+  <si>
+    <t>C:\Users\juan\Documents\35010109-Oliva.png</t>
+  </si>
+  <si>
+    <t>C:\Users\juan\Documents\47010299-Azul.png</t>
+  </si>
+  <si>
+    <t>C:\Users\juan\Documents\4709608-Marino.png</t>
+  </si>
+  <si>
+    <t>C:\Users\juan\Documents\5009834-Beige.png</t>
   </si>
 </sst>
 </file>
@@ -607,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAF92C7-A778-4305-BA92-0305C7282631}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,16 +673,16 @@
         <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,13 +702,13 @@
         <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1">
         <v>26310108</v>
@@ -725,13 +731,13 @@
         <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1">
         <v>22210000</v>
@@ -754,13 +760,13 @@
         <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1">
         <v>1603952</v>
@@ -783,13 +789,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1">
         <v>3548929</v>
@@ -812,7 +818,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -841,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -870,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -899,7 +905,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
